--- a/biology/Botanique/Serapias/Serapias.xlsx
+++ b/biology/Botanique/Serapias/Serapias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serapias (les sérapias en français) est un genre méditerranéo-atlantique (-macaronésien) de plantes herbacées pérennes de la famille des Orchidacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un genre d’orchidée essentiellement méditerranéen de 16 espèces actuellement reconnues (hors des hybrides naturels) réparties des Açores et des îles Canaries à l'ouest jusqu'au Caucase à l'est, au sud de l'Afrique du Nord et au nord jusqu'en Bretagne. De plus Serapias lingua a été récemment signalé à Guernesey dans les îles Anglo-Normandes. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serapias athwaghlisia 	Kreutz &amp; Rebbas 	(2014)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Serapias athwaghlisia 	Kreutz &amp; Rebbas 	(2014)
 Serapias bergonii 		E.G.Camus		(1908)
 Serapias cordigera 		L. 				(1763)
 Serapias frankavillae 	Cristaudo, Galesi &amp; R.Lorenz		(2009)
@@ -559,9 +575,43 @@
 Serapias perez-chiscanoi 	Acedo   		(1990)
 Serapias politisii 		Renz         (1928)
 Serapias strictiflora 	Welw. ex Veiga  (1886)
-Serapias vomeracea 	    (Burm.f.) Briq.   (1910)
-Hybrides naturels
-	Serapias × alberti 			E.G.Camus
+Serapias vomeracea 	    (Burm.f.) Briq.   (1910)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Serapias</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serapias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hybrides naturels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Serapias × alberti 			E.G.Camus
 	Serapias × ambigua    		Rouy ex E.G.Camus
 	Serapias × barsellae  		Lumare &amp; Medagli
 	Serapias × cypria 			H.Baumann &amp; Künkele
